--- a/outputs/freshwater_s2-analysis/2023-2024/script_ran_on_2026-02-04/fw_appendix_sub_basin_scores.xlsx
+++ b/outputs/freshwater_s2-analysis/2023-2024/script_ran_on_2026-02-04/fw_appendix_sub_basin_scores.xlsx
@@ -455,13 +455,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
